--- a/big-data/big-data-capstone/project/data/beer_n_Somersby Pear Cider.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Somersby Pear Cider.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 1.5July 5, 2015
 Yellowish water appearance with very strong artificial pear taste. High carbonation. Poor.
@@ -774,7 +774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zvsn(7,780)
+          <t>zvsn(7,783)
 🇮🇱Israel
 1.6February 9, 2015
 Bottle sample at a tasting.Thanks Stas. Crystal clear. Aroma and taste of pear, candies and fruity juice. Light bodied, sticky.…
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ken1(4,580)
+          <t>ken1(4,582)
 🇩🇰Aarhus, Denmark
 2.2February 1, 2014
 Aroma is sweet and fruity. Flavor is synthetic pear and sugar. Color is bright light with no head.
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rasmus40(31,650)
+          <t>Rasmus40(31,652)
 🇩🇰Beder, Aarhus, Denmark
 1.6February 1, 2014
 Can. 4.5 % ABV. Clear as water and without head. Aroma is sweet, sugary and Hubba Bubba apple chewing gum. Flavor is quite sweet. Sweet finish. Watery. 010114
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nilsas(7,961)
+          <t>nilsas(7,971)
 🇳🇴Bryne, Norway
 1.8August 14, 2013
 Sterk søtlig duft av pære. Fin lys gyllen farge. Lite skum. Sterk søt smak av pære.
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gurthnar(10,578)
+          <t>Gurthnar(10,580)
 🇸🇰Bratislava, Slovakia
 1.3August 11, 2013
 Can. Aroma pear, grapes, winey. Hardly any colour at all. Taste is winey pear, alcoholey.
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,248)
 🇪🇪Tallinn, Estonia
 1.6July 20, 2013
 330ml bottle (Rimi, Tallinn) - at 4.5%, presumably Aldaris…
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cool_Bond(5,533)
+          <t>Cool_Bond(5,535)
 🇸🇪KUNG_AV_OL @ Instagram, Sweden
 2.5June 16, 2013
 Decent with fragrance. The taste is of pear and spirits taste even at this low alcohol percentage. Thin aftertaste. Follow me @ Kung av öl / King of Beer @ Facebook for more pictures an…
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ALLOVATE(3,707)
+          <t>ALLOVATE(3,708)
 🇦🇺Perth, Australia
 1.0December 26, 2012
 Labelled as having ’original fruity flavour’ I was obviously on to a winner with this one. Honestly had to turn a blind eye to the sad product description on the side though! Engrish!??…
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marduk(17,800)
+          <t>Marduk(17,850)
 🇪🇪Reval, Estonia
 1.3September 15, 2012
 330ml bottle. Very pale yellow color, almost white. Sugary, syrup, pear in aroma. Way too sweet, artificial pear in flavor.
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AndySnow(13,883)
+          <t>AndySnow(13,897)
 🇸🇪Huddinge, Sweden
 1.7August 23, 2012
 Can. Light yellow colour with no head. Sweet aroma. Flavour is sweet pears.
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nisse666(13,625)
+          <t>Nisse666(13,627)
 🇸🇪Göteborg, Sweden
 2.7August 5, 2012
 Bottle from SB cons 2012-08-05 Göteborg
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sigmund(12,250)
+          <t>Sigmund(12,264)
 🇳🇴Tau, Norway
 0.8June 4, 2012
 330 ml clear bottle, Cardinal Pub &amp; Bar, Stavanger. ABV is 4.5%. Nearly clear like water, just a hint of yellowish-greenish colour. Pours fizzy, hardly any head. Strong and disgusting artificial…
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cunningham(12,661)
+          <t>Cunningham(12,665)
 🇳🇴Halden, Norway
 1.2March 1, 2012
 Can. Golden colour with a small bubbly white head. Syntetic pear nose. Massive sweet syntetic pear flavour.
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Marko(14,001)
+          <t>Marko(14,020)
 🇨🇿Prague, Czech Republic
 1.8September 17, 2010
 33cl can. Copenhagen. Forced to drink crap due to current circumstances. Improvement needed tomorrow :) Pear candy nose, slightly stale. Soapy candy pear taste, actually kinda…
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>chrisv10(23,975)
+          <t>chrisv10(23,978)
 🇩🇰Denmark
 1.4June 13, 2010
 33 cl can. Pale yellow with small white head. Flavour and aroma is very sweet and artificial pear like.
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ungstrup(48,901)
+          <t>Ungstrup(48,914)
 🇩🇰Citizen of the universe, Denmark
 1.7February 9, 2010
 Can. A very light yellow perry with a fast disappearing white head. The aroma has strong notes of artificial pears. The flavor is sweet with strong notes of pear juice, leading to a lightly…
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 1.9August 31, 2009
 very light yellow, almost entirely clear. small white head that soon disappears.…
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,922)
 🇩🇰VestJylland, Denmark
 1.7August 20, 2009
 Can 33cl.
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gunnfryd(19,756)
+          <t>gunnfryd(19,766)
 🇳🇴Kristiansand, Norway
 1.1July 27, 2009
 Can. Yellow- white colour with white bubbles. Aroma is canned pear. Flavour is canned pears, sugar, yeast.Thin
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joergen(39,716)
+          <t>joergen(39,740)
 🇩🇰Frederiksberg, Denmark
 1.6May 3, 2009
 Can at home.
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HenrikSoegaard(19,302)
+          <t>HenrikSoegaard(19,303)
 🇩🇰Randers, Denmark
 1.9March 20, 2009
 Bottle. Greenisch yellow colour. Strong artificial pear aroma and flavor. Moderate sweet. Watery palate. Not a very good perry.
@@ -6546,7 +6546,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Plovmand(11,359)
+          <t>Plovmand(11,361)
 🇩🇰Grindsted, Denmark
 1.6March 15, 2009
 Bottle. Clear green/yellow almost pale body with a fizzy small white head. Crispy pear in aroma. Thin body with sodapop like carbonation. Overly sweet artificial taste of pear with and…
